--- a/Tables/mechanism_pres.xlsx
+++ b/Tables/mechanism_pres.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4F61ED-3CBA-47E5-9310-B76521B63A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10B1A56-C2D8-4220-8E18-EECC37115130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D861D000-8099-4C4C-8EBE-AC6D62ECC35E}"/>
+    <workbookView xWindow="-22815" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{D861D000-8099-4C4C-8EBE-AC6D62ECC35E}"/>
   </bookViews>
   <sheets>
     <sheet name="mechanism_pres1" sheetId="2" r:id="rId1"/>
@@ -255,9 +255,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -280,6 +277,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -309,7 +309,7 @@
       <sheetName val="mechanism"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="2">
           <cell r="A2" t="str">
             <v/>
@@ -332,7 +332,7 @@
             <v>-13.8***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>7.70***</v>
+            <v>7.69***</v>
           </cell>
           <cell r="D5" t="str">
             <v>0.079***</v>
@@ -344,16 +344,16 @@
             <v>-0.070***</v>
           </cell>
           <cell r="H5" t="str">
-            <v>-3.96***</v>
+            <v>-3.89***</v>
           </cell>
           <cell r="I5" t="str">
             <v>0.14***</v>
           </cell>
           <cell r="J5" t="str">
+            <v>0.0050</v>
+          </cell>
+          <cell r="K5" t="str">
             <v>-0.031</v>
-          </cell>
-          <cell r="K5" t="str">
-            <v>-0.19***</v>
           </cell>
         </row>
         <row r="6">
@@ -364,7 +364,7 @@
             <v>(1.61)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(2.78)</v>
+            <v>(2.76)</v>
           </cell>
           <cell r="D6" t="str">
             <v>(0.026)</v>
@@ -382,7 +382,7 @@
             <v>(0.034)</v>
           </cell>
           <cell r="J6" t="str">
-            <v>(0.049)</v>
+            <v>(0.021)</v>
           </cell>
           <cell r="K6" t="str">
             <v>(0.049)</v>
@@ -393,7 +393,7 @@
             <v>-3.51**</v>
           </cell>
           <cell r="C8" t="str">
-            <v>-0.85</v>
+            <v>-1.11</v>
           </cell>
           <cell r="D8" t="str">
             <v>-0.010</v>
@@ -402,19 +402,19 @@
             <v>-0.18</v>
           </cell>
           <cell r="G8" t="str">
-            <v>-0.028**</v>
+            <v>-0.026*</v>
           </cell>
           <cell r="H8" t="str">
-            <v>-2.11**</v>
+            <v>-1.77*</v>
           </cell>
           <cell r="I8" t="str">
-            <v>0.053*</v>
+            <v>0.049*</v>
           </cell>
           <cell r="J8" t="str">
+            <v>0.0035</v>
+          </cell>
+          <cell r="K8" t="str">
             <v>0.085</v>
-          </cell>
-          <cell r="K8" t="str">
-            <v>-0.090**</v>
           </cell>
         </row>
         <row r="9">
@@ -437,16 +437,16 @@
             <v>(0.014)</v>
           </cell>
           <cell r="H9" t="str">
-            <v>(1.04)</v>
+            <v>(1.01)</v>
           </cell>
           <cell r="I9" t="str">
             <v>(0.029)</v>
           </cell>
           <cell r="J9" t="str">
+            <v>(0.019)</v>
+          </cell>
+          <cell r="K9" t="str">
             <v>(0.053)</v>
-          </cell>
-          <cell r="K9" t="str">
-            <v>(0.042)</v>
           </cell>
         </row>
         <row r="11">
@@ -466,16 +466,16 @@
             <v>6304</v>
           </cell>
           <cell r="H11" t="str">
-            <v>2486</v>
+            <v>2487</v>
           </cell>
           <cell r="I11" t="str">
-            <v>2486</v>
+            <v>2487</v>
           </cell>
           <cell r="J11" t="str">
             <v>6304</v>
           </cell>
           <cell r="K11" t="str">
-            <v>2486</v>
+            <v>6304</v>
           </cell>
         </row>
         <row r="12">
@@ -492,19 +492,19 @@
             <v>0.054</v>
           </cell>
           <cell r="G12" t="str">
-            <v>0.011</v>
+            <v>0.010</v>
           </cell>
           <cell r="H12" t="str">
-            <v>0.023</v>
+            <v>0.021</v>
           </cell>
           <cell r="I12" t="str">
             <v>0.033</v>
           </cell>
           <cell r="J12" t="str">
+            <v>0.016</v>
+          </cell>
+          <cell r="K12" t="str">
             <v>0.022</v>
-          </cell>
-          <cell r="K12" t="str">
-            <v>0.026</v>
           </cell>
         </row>
         <row r="13">
@@ -515,7 +515,7 @@
             <v>82.8</v>
           </cell>
           <cell r="C13" t="str">
-            <v>44.7</v>
+            <v>44.8</v>
           </cell>
           <cell r="D13" t="str">
             <v>0.30</v>
@@ -527,16 +527,16 @@
             <v>0.12</v>
           </cell>
           <cell r="H13" t="str">
-            <v>9.59</v>
+            <v>9.47</v>
           </cell>
           <cell r="I13" t="str">
-            <v>0.71</v>
+            <v>0.72</v>
           </cell>
           <cell r="J13" t="str">
+            <v>0.31</v>
+          </cell>
+          <cell r="K13" t="str">
             <v>1.14</v>
-          </cell>
-          <cell r="K13" t="str">
-            <v>0.39</v>
           </cell>
         </row>
       </sheetData>
@@ -844,27 +844,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E71CA1F-BA7A-4C96-BA99-D147A62AC76C}">
   <dimension ref="A2:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.81640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4"/>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="23"/>
       <c r="D2"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -873,7 +873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="str">
         <f>[1]mechanism!A2</f>
         <v/>
@@ -887,7 +887,7 @@
         <v>(2)</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -897,10 +897,10 @@
       </c>
       <c r="C5" s="1" t="str">
         <f>[1]mechanism!C5</f>
-        <v>7.70***</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.69***</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>[1]mechanism!A6</f>
         <v/>
@@ -911,10 +911,10 @@
       </c>
       <c r="C6" s="1" t="str">
         <f>[1]mechanism!C6</f>
-        <v>(2.78)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>(2.76)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -924,10 +924,10 @@
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]mechanism!C8</f>
-        <v>-0.85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>[1]mechanism!A9</f>
         <v/>
@@ -941,7 +941,7 @@
         <v>(2.19)</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
@@ -954,7 +954,7 @@
         <v>6304</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -967,7 +967,7 @@
         <v>0.014</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="str">
         <f>[1]mechanism!A13</f>
         <v>Control Mean</v>
@@ -978,20 +978,20 @@
       </c>
       <c r="C12" s="3" t="str">
         <f>[1]mechanism!C13</f>
-        <v>44.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="13"/>
       <c r="B14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -999,12 +999,12 @@
         <f>[1]mechanism!D2</f>
         <v>(3)</v>
       </c>
-      <c r="C15" s="17" t="str">
+      <c r="C15" s="16" t="str">
         <f>[1]mechanism!E2</f>
         <v>(4)</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1012,12 +1012,12 @@
         <f>[1]mechanism!D5</f>
         <v>0.079***</v>
       </c>
-      <c r="C16" s="18" t="str">
+      <c r="C16" s="17" t="str">
         <f>[1]mechanism!E5</f>
         <v>-27.9***</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1025,12 +1025,12 @@
         <f>[1]mechanism!D6</f>
         <v>(0.026)</v>
       </c>
-      <c r="C17" s="18" t="str">
+      <c r="C17" s="17" t="str">
         <f>[1]mechanism!E6</f>
         <v>(4.35)</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1038,12 +1038,12 @@
         <f>[1]mechanism!D8</f>
         <v>-0.010</v>
       </c>
-      <c r="C18" s="18" t="str">
+      <c r="C18" s="17" t="str">
         <f>[1]mechanism!E8</f>
         <v>-0.18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1051,17 +1051,17 @@
         <f>[1]mechanism!D9</f>
         <v>(0.022)</v>
       </c>
-      <c r="C19" s="18" t="str">
+      <c r="C19" s="17" t="str">
         <f>[1]mechanism!E9</f>
         <v>(4.33)</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="19"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1069,12 +1069,12 @@
         <f>[1]mechanism!D11</f>
         <v>6304</v>
       </c>
-      <c r="C21" s="20" t="str">
+      <c r="C21" s="19" t="str">
         <f>[1]mechanism!E11</f>
         <v>6304</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1082,12 +1082,12 @@
         <f>[1]mechanism!D12</f>
         <v>0.016</v>
       </c>
-      <c r="C22" s="18" t="str">
+      <c r="C22" s="17" t="str">
         <f>[1]mechanism!E12</f>
         <v>0.054</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -1095,47 +1095,47 @@
         <f>[1]mechanism!D13</f>
         <v>0.30</v>
       </c>
-      <c r="C23" s="21" t="str">
+      <c r="C23" s="20" t="str">
         <f>[1]mechanism!E13</f>
         <v>136.6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -1143,47 +1143,47 @@
         <f>[1]mechanism!G5</f>
         <v>-0.070***</v>
       </c>
-      <c r="C29" s="18" t="str">
+      <c r="C29" s="17" t="str">
         <f>[1]mechanism!H5</f>
-        <v>-3.96***</v>
-      </c>
-      <c r="D29" s="18" t="str">
+        <v>-3.89***</v>
+      </c>
+      <c r="D29" s="17" t="str">
         <f>[1]mechanism!I5</f>
         <v>0.14***</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="str">
         <f>[1]mechanism!G6</f>
         <v>(0.015)</v>
       </c>
-      <c r="C30" s="18" t="str">
+      <c r="C30" s="17" t="str">
         <f>[1]mechanism!H6</f>
         <v>(1.27)</v>
       </c>
-      <c r="D30" s="18" t="str">
+      <c r="D30" s="17" t="str">
         <f>[1]mechanism!I6</f>
         <v>(0.034)</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="1" t="str">
         <f>[1]mechanism!G8</f>
-        <v>-0.028**</v>
-      </c>
-      <c r="C31" s="18" t="str">
+        <v>-0.026*</v>
+      </c>
+      <c r="C31" s="17" t="str">
         <f>[1]mechanism!H8</f>
-        <v>-2.11**</v>
-      </c>
-      <c r="D31" s="18" t="str">
+        <v>-1.77*</v>
+      </c>
+      <c r="D31" s="17" t="str">
         <f>[1]mechanism!I8</f>
-        <v>0.053*</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.049*</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1191,22 +1191,22 @@
         <f>[1]mechanism!G9</f>
         <v>(0.014)</v>
       </c>
-      <c r="C32" s="18" t="str">
+      <c r="C32" s="17" t="str">
         <f>[1]mechanism!H9</f>
-        <v>(1.04)</v>
-      </c>
-      <c r="D32" s="18" t="str">
+        <v>(1.01)</v>
+      </c>
+      <c r="D32" s="17" t="str">
         <f>[1]mechanism!I9</f>
         <v>(0.029)</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -1214,33 +1214,33 @@
         <f>[1]mechanism!G11</f>
         <v>6304</v>
       </c>
-      <c r="C34" s="18" t="str">
+      <c r="C34" s="17" t="str">
         <f>[1]mechanism!H11</f>
-        <v>2486</v>
-      </c>
-      <c r="D34" s="18" t="str">
+        <v>2487</v>
+      </c>
+      <c r="D34" s="17" t="str">
         <f>[1]mechanism!I11</f>
-        <v>2486</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>0</v>
       </c>
       <c r="B35" s="1" t="str">
         <f>[1]mechanism!G12</f>
-        <v>0.011</v>
-      </c>
-      <c r="C35" s="18" t="str">
+        <v>0.010</v>
+      </c>
+      <c r="C35" s="17" t="str">
         <f>[1]mechanism!H12</f>
-        <v>0.023</v>
-      </c>
-      <c r="D35" s="18" t="str">
+        <v>0.021</v>
+      </c>
+      <c r="D35" s="17" t="str">
         <f>[1]mechanism!I12</f>
         <v>0.033</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>3</v>
       </c>
@@ -1248,24 +1248,24 @@
         <f>[1]mechanism!G13</f>
         <v>0.12</v>
       </c>
-      <c r="C36" s="21" t="str">
+      <c r="C36" s="20" t="str">
         <f>[1]mechanism!H13</f>
-        <v>9.59</v>
-      </c>
-      <c r="D36" s="21" t="str">
+        <v>9.47</v>
+      </c>
+      <c r="D36" s="20" t="str">
         <f>[1]mechanism!I13</f>
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="15"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="23"/>
+    </row>
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2"/>
       <c r="B39" s="10" t="s">
         <v>8</v>
@@ -1274,7 +1274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -1285,61 +1285,61 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>16</v>
       </c>
       <c r="B41" s="1" t="str">
         <f>[1]mechanism!J5</f>
-        <v>-0.031</v>
+        <v>0.0050</v>
       </c>
       <c r="C41" s="1" t="str">
         <f>[1]mechanism!K5</f>
-        <v>-0.19***</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.031</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="str">
         <f>[1]mechanism!J6</f>
-        <v>(0.049)</v>
+        <v>(0.021)</v>
       </c>
       <c r="C42" s="1" t="str">
         <f>[1]mechanism!K6</f>
         <v>(0.049)</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="1" t="str">
         <f>[1]mechanism!J8</f>
-        <v>0.085</v>
+        <v>0.0035</v>
       </c>
       <c r="C43" s="1" t="str">
         <f>[1]mechanism!K8</f>
-        <v>-0.090**</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.085</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>2</v>
       </c>
       <c r="B44" s="1" t="str">
         <f>[1]mechanism!J9</f>
-        <v>(0.053)</v>
+        <v>(0.019)</v>
       </c>
       <c r="C44" s="1" t="str">
         <f>[1]mechanism!K9</f>
-        <v>(0.042)</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>(0.053)</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="6"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -1349,36 +1349,36 @@
       </c>
       <c r="C46" s="1" t="str">
         <f>[1]mechanism!K11</f>
-        <v>2486</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6304</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="1" t="str">
         <f>[1]mechanism!J12</f>
-        <v>0.022</v>
+        <v>0.016</v>
       </c>
       <c r="C47" s="1" t="str">
         <f>[1]mechanism!K12</f>
-        <v>0.026</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B48" s="3" t="str">
         <f>[1]mechanism!J13</f>
-        <v>1.14</v>
+        <v>0.31</v>
       </c>
       <c r="C48" s="3" t="str">
         <f>[1]mechanism!K13</f>
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="49" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:C2"/>
@@ -1397,23 +1397,23 @@
       <selection activeCell="C23" sqref="A2:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.81640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4"/>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="23"/>
       <c r="D2"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -1422,7 +1422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="str">
         <f>[1]mechanism!A2</f>
         <v/>
@@ -1436,7 +1436,7 @@
         <v>(2)</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1446,10 +1446,10 @@
       </c>
       <c r="C5" s="1" t="str">
         <f>[1]mechanism!C5</f>
-        <v>7.70***</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.69***</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>[1]mechanism!A6</f>
         <v/>
@@ -1460,10 +1460,10 @@
       </c>
       <c r="C6" s="1" t="str">
         <f>[1]mechanism!C6</f>
-        <v>(2.78)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>(2.76)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1473,10 +1473,10 @@
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]mechanism!C8</f>
-        <v>-0.85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>[1]mechanism!A9</f>
         <v/>
@@ -1490,7 +1490,7 @@
         <v>(2.19)</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>6304</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>0.014</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="str">
         <f>[1]mechanism!A13</f>
         <v>Control Mean</v>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="C12" s="3" t="str">
         <f>[1]mechanism!C13</f>
-        <v>44.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="13"/>
       <c r="B14" s="14" t="s">
         <v>10</v>
@@ -1540,7 +1540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>(4)</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>-27.9***</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>(4.35)</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>-0.18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1605,12 +1605,12 @@
         <v>(4.33)</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>6304</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>0.054</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -1649,16 +1649,16 @@
         <v>136.6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="10" t="s">
         <v>11</v>
@@ -1670,7 +1670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
         <v>2</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -1694,14 +1694,14 @@
       </c>
       <c r="C29" s="1" t="str">
         <f>[1]mechanism!H5</f>
-        <v>-3.96***</v>
+        <v>-3.89***</v>
       </c>
       <c r="D29" s="1" t="str">
         <f>[1]mechanism!I5</f>
         <v>0.14***</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="str">
         <f>[1]mechanism!G6</f>
         <v>(0.015)</v>
@@ -1715,24 +1715,24 @@
         <v>(0.034)</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="1" t="str">
         <f>[1]mechanism!G8</f>
-        <v>-0.028**</v>
+        <v>-0.026*</v>
       </c>
       <c r="C31" s="1" t="str">
         <f>[1]mechanism!H8</f>
-        <v>-2.11**</v>
+        <v>-1.77*</v>
       </c>
       <c r="D31" s="1" t="str">
         <f>[1]mechanism!I8</f>
-        <v>0.053*</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.049*</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1742,20 +1742,20 @@
       </c>
       <c r="C32" s="1" t="str">
         <f>[1]mechanism!H9</f>
-        <v>(1.04)</v>
+        <v>(1.01)</v>
       </c>
       <c r="D32" s="1" t="str">
         <f>[1]mechanism!I9</f>
         <v>(0.029)</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -1765,31 +1765,31 @@
       </c>
       <c r="C34" s="1" t="str">
         <f>[1]mechanism!H11</f>
-        <v>2486</v>
+        <v>2487</v>
       </c>
       <c r="D34" s="1" t="str">
         <f>[1]mechanism!I11</f>
-        <v>2486</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>0</v>
       </c>
       <c r="B35" s="1" t="str">
         <f>[1]mechanism!G12</f>
-        <v>0.011</v>
+        <v>0.010</v>
       </c>
       <c r="C35" s="1" t="str">
         <f>[1]mechanism!H12</f>
-        <v>0.023</v>
+        <v>0.021</v>
       </c>
       <c r="D35" s="1" t="str">
         <f>[1]mechanism!I12</f>
         <v>0.033</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>3</v>
       </c>
@@ -1799,22 +1799,22 @@
       </c>
       <c r="C36" s="3" t="str">
         <f>[1]mechanism!H13</f>
-        <v>9.59</v>
+        <v>9.47</v>
       </c>
       <c r="D36" s="3" t="str">
         <f>[1]mechanism!I13</f>
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="15"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="23"/>
+    </row>
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2"/>
       <c r="B39" s="10" t="s">
         <v>8</v>
@@ -1823,7 +1823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -1834,61 +1834,61 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>16</v>
       </c>
       <c r="B41" s="1" t="str">
         <f>[1]mechanism!J5</f>
-        <v>-0.031</v>
+        <v>0.0050</v>
       </c>
       <c r="C41" s="1" t="str">
         <f>[1]mechanism!K5</f>
-        <v>-0.19***</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.031</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="str">
         <f>[1]mechanism!J6</f>
-        <v>(0.049)</v>
+        <v>(0.021)</v>
       </c>
       <c r="C42" s="1" t="str">
         <f>[1]mechanism!K6</f>
         <v>(0.049)</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="1" t="str">
         <f>[1]mechanism!J8</f>
-        <v>0.085</v>
+        <v>0.0035</v>
       </c>
       <c r="C43" s="1" t="str">
         <f>[1]mechanism!K8</f>
-        <v>-0.090**</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.085</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>2</v>
       </c>
       <c r="B44" s="1" t="str">
         <f>[1]mechanism!J9</f>
-        <v>(0.053)</v>
+        <v>(0.019)</v>
       </c>
       <c r="C44" s="1" t="str">
         <f>[1]mechanism!K9</f>
-        <v>(0.042)</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>(0.053)</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="6"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -1898,36 +1898,36 @@
       </c>
       <c r="C46" s="1" t="str">
         <f>[1]mechanism!K11</f>
-        <v>2486</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6304</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="1" t="str">
         <f>[1]mechanism!J12</f>
-        <v>0.022</v>
+        <v>0.016</v>
       </c>
       <c r="C47" s="1" t="str">
         <f>[1]mechanism!K12</f>
-        <v>0.026</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B48" s="3" t="str">
         <f>[1]mechanism!J13</f>
-        <v>1.14</v>
+        <v>0.31</v>
       </c>
       <c r="C48" s="3" t="str">
         <f>[1]mechanism!K13</f>
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="49" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B38:C38"/>

--- a/Tables/mechanism_pres.xlsx
+++ b/Tables/mechanism_pres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10B1A56-C2D8-4220-8E18-EECC37115130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468CBE6A-2234-4B7F-BA76-F49D8AF478D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22815" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{D861D000-8099-4C4C-8EBE-AC6D62ECC35E}"/>
+    <workbookView xWindow="-20535" yWindow="-14040" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{D861D000-8099-4C4C-8EBE-AC6D62ECC35E}"/>
   </bookViews>
   <sheets>
     <sheet name="mechanism_pres1" sheetId="2" r:id="rId1"/>
@@ -332,7 +332,7 @@
             <v>-13.8***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>7.69***</v>
+            <v>9.76***</v>
           </cell>
           <cell r="D5" t="str">
             <v>0.079***</v>
@@ -341,10 +341,10 @@
             <v>-27.9***</v>
           </cell>
           <cell r="G5" t="str">
-            <v>-0.070***</v>
+            <v>-0.071***</v>
           </cell>
           <cell r="H5" t="str">
-            <v>-3.89***</v>
+            <v>-4.12***</v>
           </cell>
           <cell r="I5" t="str">
             <v>0.14***</v>
@@ -364,7 +364,7 @@
             <v>(1.61)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(2.76)</v>
+            <v>(2.74)</v>
           </cell>
           <cell r="D6" t="str">
             <v>(0.026)</v>
@@ -376,7 +376,7 @@
             <v>(0.015)</v>
           </cell>
           <cell r="H6" t="str">
-            <v>(1.27)</v>
+            <v>(1.28)</v>
           </cell>
           <cell r="I6" t="str">
             <v>(0.034)</v>
@@ -393,7 +393,7 @@
             <v>-3.51**</v>
           </cell>
           <cell r="C8" t="str">
-            <v>-1.11</v>
+            <v>-0.58</v>
           </cell>
           <cell r="D8" t="str">
             <v>-0.010</v>
@@ -402,13 +402,13 @@
             <v>-0.18</v>
           </cell>
           <cell r="G8" t="str">
-            <v>-0.026*</v>
+            <v>-0.027**</v>
           </cell>
           <cell r="H8" t="str">
-            <v>-1.77*</v>
+            <v>-1.82*</v>
           </cell>
           <cell r="I8" t="str">
-            <v>0.049*</v>
+            <v>0.050*</v>
           </cell>
           <cell r="J8" t="str">
             <v>0.0035</v>
@@ -425,7 +425,7 @@
             <v>(1.57)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(2.19)</v>
+            <v>(2.23)</v>
           </cell>
           <cell r="D9" t="str">
             <v>(0.022)</v>
@@ -437,7 +437,7 @@
             <v>(0.014)</v>
           </cell>
           <cell r="H9" t="str">
-            <v>(1.01)</v>
+            <v>(1.05)</v>
           </cell>
           <cell r="I9" t="str">
             <v>(0.029)</v>
@@ -466,10 +466,10 @@
             <v>6304</v>
           </cell>
           <cell r="H11" t="str">
-            <v>2487</v>
+            <v>2492</v>
           </cell>
           <cell r="I11" t="str">
-            <v>2487</v>
+            <v>2492</v>
           </cell>
           <cell r="J11" t="str">
             <v>6304</v>
@@ -483,7 +483,7 @@
             <v>0.055</v>
           </cell>
           <cell r="C12" t="str">
-            <v>0.014</v>
+            <v>0.017</v>
           </cell>
           <cell r="D12" t="str">
             <v>0.016</v>
@@ -492,13 +492,13 @@
             <v>0.054</v>
           </cell>
           <cell r="G12" t="str">
-            <v>0.010</v>
+            <v>0.011</v>
           </cell>
           <cell r="H12" t="str">
-            <v>0.021</v>
+            <v>0.024</v>
           </cell>
           <cell r="I12" t="str">
-            <v>0.033</v>
+            <v>0.034</v>
           </cell>
           <cell r="J12" t="str">
             <v>0.016</v>
@@ -515,7 +515,7 @@
             <v>82.8</v>
           </cell>
           <cell r="C13" t="str">
-            <v>44.8</v>
+            <v>45.8</v>
           </cell>
           <cell r="D13" t="str">
             <v>0.30</v>
@@ -527,10 +527,10 @@
             <v>0.12</v>
           </cell>
           <cell r="H13" t="str">
-            <v>9.47</v>
+            <v>9.68</v>
           </cell>
           <cell r="I13" t="str">
-            <v>0.72</v>
+            <v>0.71</v>
           </cell>
           <cell r="J13" t="str">
             <v>0.31</v>
@@ -844,7 +844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E71CA1F-BA7A-4C96-BA99-D147A62AC76C}">
   <dimension ref="A2:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="A38" sqref="A38:C48"/>
     </sheetView>
   </sheetViews>
@@ -897,7 +897,7 @@
       </c>
       <c r="C5" s="1" t="str">
         <f>[1]mechanism!C5</f>
-        <v>7.69***</v>
+        <v>9.76***</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -911,7 +911,7 @@
       </c>
       <c r="C6" s="1" t="str">
         <f>[1]mechanism!C6</f>
-        <v>(2.76)</v>
+        <v>(2.74)</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -924,7 +924,7 @@
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]mechanism!C8</f>
-        <v>-1.11</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -938,7 +938,7 @@
       </c>
       <c r="C8" s="1" t="str">
         <f>[1]mechanism!C9</f>
-        <v>(2.19)</v>
+        <v>(2.23)</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -964,7 +964,7 @@
       </c>
       <c r="C11" s="1" t="str">
         <f>[1]mechanism!C12</f>
-        <v>0.014</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -978,7 +978,7 @@
       </c>
       <c r="C12" s="3" t="str">
         <f>[1]mechanism!C13</f>
-        <v>44.8</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1141,11 +1141,11 @@
       </c>
       <c r="B29" s="1" t="str">
         <f>[1]mechanism!G5</f>
-        <v>-0.070***</v>
+        <v>-0.071***</v>
       </c>
       <c r="C29" s="17" t="str">
         <f>[1]mechanism!H5</f>
-        <v>-3.89***</v>
+        <v>-4.12***</v>
       </c>
       <c r="D29" s="17" t="str">
         <f>[1]mechanism!I5</f>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="C30" s="17" t="str">
         <f>[1]mechanism!H6</f>
-        <v>(1.27)</v>
+        <v>(1.28)</v>
       </c>
       <c r="D30" s="17" t="str">
         <f>[1]mechanism!I6</f>
@@ -1172,15 +1172,15 @@
       </c>
       <c r="B31" s="1" t="str">
         <f>[1]mechanism!G8</f>
-        <v>-0.026*</v>
+        <v>-0.027**</v>
       </c>
       <c r="C31" s="17" t="str">
         <f>[1]mechanism!H8</f>
-        <v>-1.77*</v>
+        <v>-1.82*</v>
       </c>
       <c r="D31" s="17" t="str">
         <f>[1]mechanism!I8</f>
-        <v>0.049*</v>
+        <v>0.050*</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="C32" s="17" t="str">
         <f>[1]mechanism!H9</f>
-        <v>(1.01)</v>
+        <v>(1.05)</v>
       </c>
       <c r="D32" s="17" t="str">
         <f>[1]mechanism!I9</f>
@@ -1216,11 +1216,11 @@
       </c>
       <c r="C34" s="17" t="str">
         <f>[1]mechanism!H11</f>
-        <v>2487</v>
+        <v>2492</v>
       </c>
       <c r="D34" s="17" t="str">
         <f>[1]mechanism!I11</f>
-        <v>2487</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1229,15 +1229,15 @@
       </c>
       <c r="B35" s="1" t="str">
         <f>[1]mechanism!G12</f>
-        <v>0.010</v>
+        <v>0.011</v>
       </c>
       <c r="C35" s="17" t="str">
         <f>[1]mechanism!H12</f>
-        <v>0.021</v>
+        <v>0.024</v>
       </c>
       <c r="D35" s="17" t="str">
         <f>[1]mechanism!I12</f>
-        <v>0.033</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1250,11 +1250,11 @@
       </c>
       <c r="C36" s="20" t="str">
         <f>[1]mechanism!H13</f>
-        <v>9.47</v>
+        <v>9.68</v>
       </c>
       <c r="D36" s="20" t="str">
         <f>[1]mechanism!I13</f>
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1393,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B463C252-3CBC-4DB9-9E7A-4F7C1165B369}">
   <dimension ref="A2:D49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="A2:C23"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C5" s="1" t="str">
         <f>[1]mechanism!C5</f>
-        <v>7.69***</v>
+        <v>9.76***</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="C6" s="1" t="str">
         <f>[1]mechanism!C6</f>
-        <v>(2.76)</v>
+        <v>(2.74)</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]mechanism!C8</f>
-        <v>-1.11</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="C8" s="1" t="str">
         <f>[1]mechanism!C9</f>
-        <v>(2.19)</v>
+        <v>(2.23)</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="C11" s="1" t="str">
         <f>[1]mechanism!C12</f>
-        <v>0.014</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="C12" s="3" t="str">
         <f>[1]mechanism!C13</f>
-        <v>44.8</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1690,11 +1690,11 @@
       </c>
       <c r="B29" s="1" t="str">
         <f>[1]mechanism!G5</f>
-        <v>-0.070***</v>
+        <v>-0.071***</v>
       </c>
       <c r="C29" s="1" t="str">
         <f>[1]mechanism!H5</f>
-        <v>-3.89***</v>
+        <v>-4.12***</v>
       </c>
       <c r="D29" s="1" t="str">
         <f>[1]mechanism!I5</f>
@@ -1708,7 +1708,7 @@
       </c>
       <c r="C30" s="1" t="str">
         <f>[1]mechanism!H6</f>
-        <v>(1.27)</v>
+        <v>(1.28)</v>
       </c>
       <c r="D30" s="1" t="str">
         <f>[1]mechanism!I6</f>
@@ -1721,15 +1721,15 @@
       </c>
       <c r="B31" s="1" t="str">
         <f>[1]mechanism!G8</f>
-        <v>-0.026*</v>
+        <v>-0.027**</v>
       </c>
       <c r="C31" s="1" t="str">
         <f>[1]mechanism!H8</f>
-        <v>-1.77*</v>
+        <v>-1.82*</v>
       </c>
       <c r="D31" s="1" t="str">
         <f>[1]mechanism!I8</f>
-        <v>0.049*</v>
+        <v>0.050*</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="C32" s="1" t="str">
         <f>[1]mechanism!H9</f>
-        <v>(1.01)</v>
+        <v>(1.05)</v>
       </c>
       <c r="D32" s="1" t="str">
         <f>[1]mechanism!I9</f>
@@ -1765,11 +1765,11 @@
       </c>
       <c r="C34" s="1" t="str">
         <f>[1]mechanism!H11</f>
-        <v>2487</v>
+        <v>2492</v>
       </c>
       <c r="D34" s="1" t="str">
         <f>[1]mechanism!I11</f>
-        <v>2487</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1778,15 +1778,15 @@
       </c>
       <c r="B35" s="1" t="str">
         <f>[1]mechanism!G12</f>
-        <v>0.010</v>
+        <v>0.011</v>
       </c>
       <c r="C35" s="1" t="str">
         <f>[1]mechanism!H12</f>
-        <v>0.021</v>
+        <v>0.024</v>
       </c>
       <c r="D35" s="1" t="str">
         <f>[1]mechanism!I12</f>
-        <v>0.033</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1799,11 +1799,11 @@
       </c>
       <c r="C36" s="3" t="str">
         <f>[1]mechanism!H13</f>
-        <v>9.47</v>
+        <v>9.68</v>
       </c>
       <c r="D36" s="3" t="str">
         <f>[1]mechanism!I13</f>
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
